--- a/data/index_correlated.xlsx
+++ b/data/index_correlated.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,7 +395,7 @@
         <v>43831</v>
       </c>
       <c r="C2" t="n">
-        <v>1428969</v>
+        <v>1292446</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -409,10 +409,10 @@
         <v>43862</v>
       </c>
       <c r="C3" t="n">
-        <v>1467102</v>
+        <v>1321810</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003425143859545121</v>
+        <v>0.002817354651355242</v>
       </c>
     </row>
     <row r="4">
@@ -423,10 +423,10 @@
         <v>43891</v>
       </c>
       <c r="C4" t="n">
-        <v>1706632</v>
+        <v>1551900</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02493996589496963</v>
+        <v>0.02489354085658366</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +437,10 @@
         <v>43922</v>
       </c>
       <c r="C5" t="n">
-        <v>2606683</v>
+        <v>2487731</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1057834388954533</v>
+        <v>0.1146826642979549</v>
       </c>
     </row>
     <row r="6">
@@ -451,10 +451,10 @@
         <v>43952</v>
       </c>
       <c r="C6" t="n">
-        <v>3269435</v>
+        <v>3142977</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1653124804920035</v>
+        <v>0.1775508146140534</v>
       </c>
     </row>
     <row r="7">
@@ -465,10 +465,10 @@
         <v>43983</v>
       </c>
       <c r="C7" t="n">
-        <v>2801107</v>
+        <v>2663420</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1232467952993083</v>
+        <v>0.1315392989983347</v>
       </c>
     </row>
     <row r="8">
@@ -479,10 +479,10 @@
         <v>44013</v>
       </c>
       <c r="C8" t="n">
-        <v>2451939</v>
+        <v>2266079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09188417942461571</v>
+        <v>0.09341606937961303</v>
       </c>
     </row>
     <row r="9">
@@ -493,10 +493,10 @@
         <v>44044</v>
       </c>
       <c r="C9" t="n">
-        <v>2374738</v>
+        <v>2160373</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08494990907870162</v>
+        <v>0.08327401479658084</v>
       </c>
     </row>
     <row r="10">
@@ -507,10 +507,10 @@
         <v>44075</v>
       </c>
       <c r="C10" t="n">
-        <v>3076425</v>
+        <v>2846791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1479761309697838</v>
+        <v>0.1491329899046711</v>
       </c>
     </row>
     <row r="11">
@@ -521,10 +521,10 @@
         <v>44105</v>
       </c>
       <c r="C11" t="n">
-        <v>10844167</v>
+        <v>10249343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8456824172265882</v>
+        <v>0.8593773131950619</v>
       </c>
     </row>
     <row r="12">
@@ -535,7 +535,7 @@
         <v>44136</v>
       </c>
       <c r="C12" t="n">
-        <v>12562224</v>
+        <v>11714989</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>44166</v>
       </c>
       <c r="C13" t="n">
-        <v>9475926</v>
+        <v>8617523</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7227856543302027</v>
+        <v>0.7028109166831934</v>
       </c>
     </row>
     <row r="14">
@@ -563,10 +563,38 @@
         <v>44197</v>
       </c>
       <c r="C14" t="n">
-        <v>6048838</v>
+        <v>5309651</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4149612130504511</v>
+        <v>0.3854342457498137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2897302</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1539793119587034</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2651532</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1303986944453</v>
       </c>
     </row>
   </sheetData>
